--- a/temp_doc/MAPEL - PM DKV.xlsx
+++ b/temp_doc/MAPEL - PM DKV.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/cbt2.6admin/temp_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F32DF9-0884-3647-A9F6-1D2497FD4071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C305C8ED-97A0-D447-8EC8-BB97187966C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{F3B5AAF4-EB82-C44B-8005-9A97E3042361}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{F3B5AAF4-EB82-C44B-8005-9A97E3042361}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>id_mapel</t>
   </si>
@@ -47,58 +47,52 @@
     <t>nama_mapel</t>
   </si>
   <si>
-    <t>BAHASA INDONESIA ( X PM )</t>
-  </si>
-  <si>
-    <t>MATEMTIKA ( X PM )</t>
-  </si>
-  <si>
-    <t>BAHASA INGGRIS ( X PM )</t>
-  </si>
-  <si>
-    <t>BAHASA INDONESIA ( XI PM )</t>
-  </si>
-  <si>
-    <t>MATEMTIKA ( XI PM )</t>
-  </si>
-  <si>
-    <t>BAHASA INGGRIS ( XI PM )</t>
-  </si>
-  <si>
     <t>BAHASA INDONESIA ( XII PM )</t>
   </si>
   <si>
-    <t>MATEMTIKA ( XII PM )</t>
-  </si>
-  <si>
     <t>BAHASA INGGRIS ( XII PM )</t>
   </si>
   <si>
-    <t>BAHASA INDONESIA ( X DKV )</t>
-  </si>
-  <si>
-    <t>MATEMTIKA ( X DKV )</t>
-  </si>
-  <si>
-    <t>BAHASA INGGRIS ( X DKV )</t>
-  </si>
-  <si>
-    <t>BAHASA INDONESIA ( XI DKV )</t>
-  </si>
-  <si>
-    <t>MATEMTIKA ( XI DKV )</t>
-  </si>
-  <si>
-    <t>BAHASA INGGRIS ( XI DKV )</t>
-  </si>
-  <si>
     <t>BAHASA INDONESIA ( XII DKV )</t>
   </si>
   <si>
-    <t>MATEMTIKA ( XII DKV )</t>
-  </si>
-  <si>
     <t>BAHASA INGGRIS ( XII DKV )</t>
+  </si>
+  <si>
+    <t>AGAMA ISLAM ( XII PM )</t>
+  </si>
+  <si>
+    <t>AGAMA KRISTEN ( XII PM )</t>
+  </si>
+  <si>
+    <t>PEND. PANCASILA DAN KEWARGANEGARAAN ( XII PM )</t>
+  </si>
+  <si>
+    <t>MATEMATIKA ( XII PM )</t>
+  </si>
+  <si>
+    <t>PRODUK KREATIF DAN KEWIRAUSAHAAN ( XII PM )</t>
+  </si>
+  <si>
+    <t>KONSENTRASI KEAHLIAN ( XII PM )</t>
+  </si>
+  <si>
+    <t>AGAMA ISLAM ( XII DKV )</t>
+  </si>
+  <si>
+    <t>AGAMA KRISTEN ( XII DKV )</t>
+  </si>
+  <si>
+    <t>PEND. PANCASILA DAN KEWARGANEGARAAN ( XII DKV )</t>
+  </si>
+  <si>
+    <t>MATEMATIKA ( XII DKV )</t>
+  </si>
+  <si>
+    <t>PRODUK KREATIF DAN KEWIRAUSAHAAN ( XII DKV )</t>
+  </si>
+  <si>
+    <t>KONSENTRASI KEAHLIAN ( XII DKV )</t>
   </si>
 </sst>
 </file>
@@ -477,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E4DC37-752B-FA41-9A64-68D7A3795B3C}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -504,153 +498,153 @@
     </row>
     <row r="2" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1067</v>
+        <v>1057</v>
       </c>
       <c r="B2" s="1">
-        <v>10032526</v>
+        <v>10222526</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1068</v>
+        <v>1058</v>
       </c>
       <c r="B3" s="1">
-        <v>10032526</v>
+        <v>10222526</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>1069</v>
+        <v>1059</v>
       </c>
       <c r="B4" s="1">
-        <v>10032526</v>
+        <v>10222526</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>1070</v>
+        <v>1060</v>
       </c>
       <c r="B5" s="1">
-        <v>10132526</v>
+        <v>10222526</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>1071</v>
+        <v>1061</v>
       </c>
       <c r="B6" s="1">
-        <v>10132526</v>
+        <v>10222526</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>1072</v>
+        <v>1062</v>
       </c>
       <c r="B7" s="1">
-        <v>10132526</v>
+        <v>10222526</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>1073</v>
+        <v>1063</v>
       </c>
       <c r="B8" s="1">
         <v>10222526</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>1074</v>
+        <v>1064</v>
       </c>
       <c r="B9" s="1">
         <v>10222526</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>1075</v>
+        <v>1065</v>
       </c>
       <c r="B10" s="1">
-        <v>10222526</v>
+        <v>10282526</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>1076</v>
+        <v>1066</v>
       </c>
       <c r="B11" s="1">
-        <v>10102526</v>
+        <v>10282526</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>1077</v>
+        <v>1067</v>
       </c>
       <c r="B12" s="1">
-        <v>10102526</v>
+        <v>10282526</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>1078</v>
+        <v>1068</v>
       </c>
       <c r="B13" s="1">
-        <v>10102526</v>
+        <v>10282526</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>1079</v>
+        <v>1069</v>
       </c>
       <c r="B14" s="1">
-        <v>10192526</v>
+        <v>10282526</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>1080</v>
+        <v>1070</v>
       </c>
       <c r="B15" s="1">
-        <v>10192526</v>
+        <v>10282526</v>
       </c>
       <c r="C15" t="s">
         <v>16</v>
@@ -658,10 +652,10 @@
     </row>
     <row r="16" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>1081</v>
+        <v>1071</v>
       </c>
       <c r="B16" s="1">
-        <v>10192526</v>
+        <v>10282526</v>
       </c>
       <c r="C16" t="s">
         <v>17</v>
@@ -669,7 +663,7 @@
     </row>
     <row r="17" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>1082</v>
+        <v>1072</v>
       </c>
       <c r="B17" s="1">
         <v>10282526</v>
@@ -679,26 +673,10 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="20" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>1083</v>
-      </c>
-      <c r="B18" s="1">
-        <v>10282526</v>
-      </c>
-      <c r="C18" t="s">
-        <v>19</v>
-      </c>
+      <c r="B18" s="1"/>
     </row>
     <row r="19" spans="1:3" ht="20" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>1084</v>
-      </c>
-      <c r="B19" s="1">
-        <v>10282526</v>
-      </c>
-      <c r="C19" t="s">
-        <v>20</v>
-      </c>
+      <c r="B19" s="1"/>
     </row>
     <row r="20" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="B20" s="1"/>
@@ -729,12 +707,6 @@
     </row>
     <row r="29" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="B29" s="1"/>
-    </row>
-    <row r="30" spans="1:3" ht="20" x14ac:dyDescent="0.2">
-      <c r="B30" s="1"/>
-    </row>
-    <row r="31" spans="1:3" ht="20" x14ac:dyDescent="0.2">
-      <c r="B31" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/temp_doc/MAPEL - PM DKV.xlsx
+++ b/temp_doc/MAPEL - PM DKV.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10208"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/cbt2.6admin/temp_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C305C8ED-97A0-D447-8EC8-BB97187966C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4890F9AC-B6A1-8643-8851-5DF700BC7421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{F3B5AAF4-EB82-C44B-8005-9A97E3042361}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="16120" xr2:uid="{F3B5AAF4-EB82-C44B-8005-9A97E3042361}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -474,7 +474,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B10" sqref="B10:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -501,7 +501,7 @@
         <v>1057</v>
       </c>
       <c r="B2" s="1">
-        <v>10222526</v>
+        <v>1022</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -512,7 +512,7 @@
         <v>1058</v>
       </c>
       <c r="B3" s="1">
-        <v>10222526</v>
+        <v>1022</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -523,7 +523,7 @@
         <v>1059</v>
       </c>
       <c r="B4" s="1">
-        <v>10222526</v>
+        <v>1022</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
@@ -534,7 +534,7 @@
         <v>1060</v>
       </c>
       <c r="B5" s="1">
-        <v>10222526</v>
+        <v>1022</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -545,7 +545,7 @@
         <v>1061</v>
       </c>
       <c r="B6" s="1">
-        <v>10222526</v>
+        <v>1022</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -556,7 +556,7 @@
         <v>1062</v>
       </c>
       <c r="B7" s="1">
-        <v>10222526</v>
+        <v>1022</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
@@ -567,7 +567,7 @@
         <v>1063</v>
       </c>
       <c r="B8" s="1">
-        <v>10222526</v>
+        <v>1022</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -578,7 +578,7 @@
         <v>1064</v>
       </c>
       <c r="B9" s="1">
-        <v>10222526</v>
+        <v>1022</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
@@ -589,7 +589,7 @@
         <v>1065</v>
       </c>
       <c r="B10" s="1">
-        <v>10282526</v>
+        <v>1028</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
@@ -600,7 +600,7 @@
         <v>1066</v>
       </c>
       <c r="B11" s="1">
-        <v>10282526</v>
+        <v>1028</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
@@ -611,7 +611,7 @@
         <v>1067</v>
       </c>
       <c r="B12" s="1">
-        <v>10282526</v>
+        <v>1028</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -622,7 +622,7 @@
         <v>1068</v>
       </c>
       <c r="B13" s="1">
-        <v>10282526</v>
+        <v>1028</v>
       </c>
       <c r="C13" t="s">
         <v>15</v>
@@ -633,7 +633,7 @@
         <v>1069</v>
       </c>
       <c r="B14" s="1">
-        <v>10282526</v>
+        <v>1028</v>
       </c>
       <c r="C14" t="s">
         <v>6</v>
@@ -644,7 +644,7 @@
         <v>1070</v>
       </c>
       <c r="B15" s="1">
-        <v>10282526</v>
+        <v>1028</v>
       </c>
       <c r="C15" t="s">
         <v>16</v>
@@ -655,7 +655,7 @@
         <v>1071</v>
       </c>
       <c r="B16" s="1">
-        <v>10282526</v>
+        <v>1028</v>
       </c>
       <c r="C16" t="s">
         <v>17</v>
@@ -666,7 +666,7 @@
         <v>1072</v>
       </c>
       <c r="B17" s="1">
-        <v>10282526</v>
+        <v>1028</v>
       </c>
       <c r="C17" t="s">
         <v>18</v>
